--- a/src/test/resources/testData/T24Excel/LOAN.xlsx
+++ b/src/test/resources/testData/T24Excel/LOAN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9180" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Loan_Internal" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>Debit Account Number</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Creditor Account</t>
   </si>
   <si>
+    <t>USD</t>
+  </si>
+  <si>
     <t>SGD</t>
   </si>
   <si>
@@ -68,9 +71,6 @@
   </si>
   <si>
     <t>Account with Bank Country</t>
-  </si>
-  <si>
-    <t>USD</t>
   </si>
   <si>
     <t>HK</t>
@@ -763,35 +763,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1327,13 +1324,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="22.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="20.7777777777778" customWidth="1"/>
@@ -1342,37 +1339,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4">
-        <v>18000000563</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" s="6" customFormat="1" spans="1:5">
+      <c r="A2" s="8">
+        <v>18500003367</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
-        <v>3000</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="8">
+        <v>30</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4">
-        <v>11010004255</v>
+      <c r="E2" s="8">
+        <v>11010002228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
+        <v>18500002905</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3">
+        <v>11010005898</v>
       </c>
     </row>
   </sheetData>
@@ -1386,8 +1400,8 @@
   <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1420,61 +1434,61 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="4">
-        <v>17100007089</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="A2" s="3">
+        <v>18500003367</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
         <v>100</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7">
+      <c r="F2" s="4"/>
+      <c r="G2" s="3">
         <v>3242343</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1489,7 +1503,7 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="G1" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -1524,16 +1538,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>20</v>
@@ -1541,52 +1555,52 @@
       <c r="J1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>18000000040</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>345665</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="3">
         <v>1234</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="3" t="s">
         <v>18</v>
       </c>
     </row>

--- a/src/test/resources/testData/T24Excel/LOAN.xlsx
+++ b/src/test/resources/testData/T24Excel/LOAN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Loan_Internal" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Debit Account Number</t>
   </si>
@@ -46,48 +46,45 @@
     <t>Creditor Account</t>
   </si>
   <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>Beneficiary Country Code</t>
+  </si>
+  <si>
+    <t>下个页面的参数</t>
+  </si>
+  <si>
+    <t>Beneficiary Account No</t>
+  </si>
+  <si>
+    <t>Beneficiary Name</t>
+  </si>
+  <si>
+    <t>Account with Bank BIC</t>
+  </si>
+  <si>
+    <t>Account With Town Name</t>
+  </si>
+  <si>
+    <t>Account with Bank Country</t>
+  </si>
+  <si>
     <t>USD</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>Beneficiary Country Code</t>
-  </si>
-  <si>
-    <t>下个页面的参数</t>
-  </si>
-  <si>
-    <t>Beneficiary Account No</t>
-  </si>
-  <si>
-    <t>Beneficiary Name</t>
-  </si>
-  <si>
-    <t>Account with Bank BIC</t>
-  </si>
-  <si>
-    <t>Account With Town Name</t>
-  </si>
-  <si>
-    <t>Account with Bank Country</t>
-  </si>
-  <si>
-    <t>HK</t>
-  </si>
-  <si>
-    <t>kang</t>
-  </si>
-  <si>
-    <t>CITISGS0</t>
-  </si>
-  <si>
-    <t>SINGAPORE</t>
-  </si>
-  <si>
     <t>SG</t>
   </si>
   <si>
+    <t>LENLEN</t>
+  </si>
+  <si>
+    <t>DBSSSGS0DOD</t>
+  </si>
+  <si>
+    <t>50 RAFFLES PL 35-01</t>
+  </si>
+  <si>
     <t>Beneficiary Bank BIC</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
   </si>
   <si>
     <t>Beneficiary Residence Country</t>
-  </si>
-  <si>
-    <t>lei</t>
   </si>
   <si>
     <t>teselei</t>
@@ -120,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -618,19 +612,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,7 +757,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -779,6 +773,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -789,6 +786,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1326,8 +1329,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1339,37 +1342,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:5">
-      <c r="A2" s="8">
-        <v>18500003367</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="2" s="7" customFormat="1" spans="1:5">
+      <c r="A2" s="9">
+        <v>18500004479</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8">
-        <v>30</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="11">
+        <v>290000</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8">
-        <v>11010002228</v>
+      <c r="E2" s="10">
+        <v>11021162884</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1377,13 +1380,13 @@
         <v>18500002905</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3">
         <v>11010005898</v>
@@ -1400,8 +1403,8 @@
   <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1434,62 +1437,62 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3">
-        <v>18500003367</v>
+        <v>18500003898</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3">
-        <v>100</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="5">
+        <v>300000</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="3">
-        <v>3242343</v>
+        <v>3002100</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>18</v>
+      <c r="L2" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1503,8 +1506,8 @@
   <sheetPr/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1538,45 +1541,45 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3">
-        <v>18000000040</v>
+        <v>18500003855</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>800000</v>
       </c>
       <c r="E2" s="3">
         <v>345665</v>
@@ -1584,24 +1587,24 @@
       <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>25</v>
+      <c r="G2" s="3">
+        <v>33333221</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J2" s="3">
         <v>1234</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testData/T24Excel/LOAN.xlsx
+++ b/src/test/resources/testData/T24Excel/LOAN.xlsx
@@ -46,6 +46,9 @@
     <t>Creditor Account</t>
   </si>
   <si>
+    <t>USD</t>
+  </si>
+  <si>
     <t>SGD</t>
   </si>
   <si>
@@ -68,9 +71,6 @@
   </si>
   <si>
     <t>Account with Bank Country</t>
-  </si>
-  <si>
-    <t>USD</t>
   </si>
   <si>
     <t>SG</t>
@@ -1330,7 +1330,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1360,19 +1360,19 @@
     </row>
     <row r="2" s="7" customFormat="1" spans="1:5">
       <c r="A2" s="9">
-        <v>18500004479</v>
+        <v>18500004711</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="11">
-        <v>290000</v>
+        <v>10000</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10">
-        <v>11021162884</v>
+        <v>11010004980</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1380,13 +1380,13 @@
         <v>18500002905</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
         <v>30</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3">
         <v>11010005898</v>
@@ -1437,28 +1437,28 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1466,10 +1466,10 @@
         <v>18500003898</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D2" s="5">
         <v>300000</v>
@@ -1541,16 +1541,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>19</v>
@@ -1573,10 +1573,10 @@
         <v>18500003855</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3">
         <v>800000</v>
